--- a/PyScripts/Parsers/CUR/ЦУР и ГП ВО_цели.xlsx
+++ b/PyScripts/Parsers/CUR/ЦУР и ГП ВО_цели.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Бутовецкая Софья\ВГУ\Курсы 2021-22\СПЭД и офисное программирование\Python\SP_project\PyScripts\CUR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Бутовецкая Софья\ВГУ\Курсы 2021-22\СПЭД и офисное программирование\Python\SP_project\PyScripts\Parsers\CUR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="147">
   <si>
     <t>№ п.п.</t>
   </si>
@@ -234,9 +234,6 @@
     <t>4.1 К 2030 году обеспечить, чтобы все девочки и мальчики завершали получение бесплатного, равноправного и качественного начального и среднего образования, позволяющего добиться востребованных и эффективных результатов обучения</t>
   </si>
   <si>
-    <t>4.2 К 2030году обеспечить всем девочкам и мальчикам доступ к качественным системам развития, ухода и дошкольного обучения детей младшего возраста, с тем чтобы они были готовы к получению начального образования</t>
-  </si>
-  <si>
     <t>4.3 К 2030 году обеспечить для всех женщин и мужчин равный доступ к недорогому и качественному профессионально-техническому и высшему образованию, в том числе университетскому образованию</t>
   </si>
   <si>
@@ -357,9 +354,6 @@
   </si>
   <si>
     <t>Защита и восстановление экосистем суши и содействие их рациональному использованию, рациональное лесопользование, борьба с опустыниванием, прекращение и обращение вспять процесса деградации земель и прекращение процесса утраты биологического разнообразия</t>
-  </si>
-  <si>
-    <t>15.1К 2020 году обеспечить сохранение, восстановление и рациональное использование наземных и внутренних пресноводных экосистем и их услуг, в том числе лесов, водноболотных угодий, гор и засушливых земель, в соответствии с обязательствами, вытекающими из международных соглашений</t>
   </si>
   <si>
     <t>15.2 К 2020 году содействовать внедрению методов рационального использования всех типов лесов, остановить обезлесение, восстановить деградировавшие леса и значительно расширить масштабы лесонасаждения и лесовосстановления во всем мире</t>
@@ -426,25 +420,13 @@
     <t>Содействие занятости населения</t>
   </si>
   <si>
-    <t>1. Создание условий, способствующих эффективному использованию трудовых ресурсов, развитию сферы занятости населения в Воронежской области.
-2. Обеспечение защиты конституционных прав работников на здоровые и безопасные условия труда на основе согласованных действий социальных партнеров по реализации государственной политики в сфере охраны труда.
-3. Сокращение дефицита населения трудоспособного возраста в Воронежской области</t>
-  </si>
-  <si>
     <t>Информационное общество</t>
   </si>
   <si>
-    <t>Повышение качества жизни граждан на территории Воронежской области за счет использования информационных и телекоммуникационных технологий.</t>
-  </si>
-  <si>
     <t>Развитие лесного хозяйства</t>
   </si>
   <si>
     <t>Повышение эффективности использования, охраны, защиты и воспроизводства лесов; обеспечение стабильного удовлетворения общественных потребностей в ресурсах и полезных свойствах леса при сохранении экономического и экологического потенциала, а также глобальных функций лесов и их биологического разнообразия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Создание условий для повышения эффективности охраны, защиты, воспроизводства, а также рационального многоцелевого и неистощительного использования лесов при сохранении их экологических функций, биологического разнообразия, баланса их выбытия и воспроизводства
-</t>
   </si>
   <si>
     <t>Обеспечение эффективного управления лесами и устойчивого развития лесного сектора экономики</t>
@@ -475,25 +457,12 @@
     <t>Развитие здравоохранения</t>
   </si>
   <si>
-    <t xml:space="preserve"> Снижение материнской, младенческой и детской смертности</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Совершенствование оказания специализированной медицинской помощи лицам, инфицированным вирусом иммунодефицита человека, гепатитами B и C</t>
-  </si>
-  <si>
     <t>Совершенствование методов диагностики и лечения психических расстройств, внедрение современных методов психосоциальной терапии и психосоциальной реабилитации</t>
   </si>
   <si>
     <t>Снижение заболеваемости алкоголизмом, наркоманией</t>
   </si>
   <si>
-    <t xml:space="preserve"> Совершенствование оказания скорой, в том числе скорой специализированной, медицинской помощи, медицинской эвакуации и качества донорской крови и ее компонентов
-</t>
-  </si>
-  <si>
-    <t>Создание условий для оказания доступной и качественной медицинской помощи детям и матерям;</t>
-  </si>
-  <si>
     <t>Повышение доступности качественных, эффективных и безопасных лекарственных препаратов для медицинского применения и удовлетворения потребностей населения Воронежской области</t>
   </si>
   <si>
@@ -503,70 +472,22 @@
     <t>Обеспечение доступным и комфортным жильем населения Воронежской области</t>
   </si>
   <si>
-    <t xml:space="preserve">Повышение качества жилищного обеспечения населения Воронежской области путем повышения доступности жилья и обеспечения устойчивого развития территорий региона
-</t>
-  </si>
-  <si>
     <t>Развитие культуры и туризма</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Повышение эффективности функционирования региональной туристской индустрии и повышение вклада туризма в экономику Воронежской области, создание комфортной туристской среды.
-2. Комплексное развитие региональной туристской индустрии
-</t>
-  </si>
-  <si>
-    <t>1. Повышение эффективности функционирования региональной туристской индустрии и повышение вклада туризма в экономику Воронежской области, создание комфортной туристской среды.
-2. Комплексное развитие региональной туристской индустрии</t>
-  </si>
-  <si>
     <t>Развитие предпринимательства и торговли</t>
   </si>
   <si>
-    <t xml:space="preserve">Создание благоприятного предпринимательского климата и условий для ведения бизнеса
-</t>
-  </si>
-  <si>
     <t>Повышение эффективности функционирования региональной туристской индустрии и повышение вклада туризма в экономику Воронежской области, создание комфортной туристской среды</t>
   </si>
   <si>
-    <t xml:space="preserve"> Обеспечение доступности информации о бюджетном процессе в Воронежской области
-</t>
-  </si>
-  <si>
     <t>Управление государственными финансами, создание условий для эффективного и ответственного управления муниципальными финансами, повышение устойчивости бюджетов муниципальных образований Воронежской области</t>
   </si>
   <si>
     <t>Развитие образования</t>
   </si>
   <si>
-    <t xml:space="preserve">Создание в системе дошкольного и общего образования равных возможностей для современного качественного образования
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Создание в системе дошкольного и общего образования равных возможностей для современного качественного образования
-2. Создание специальных условий для организации обучения и воспитания детей с ограниченными возможностями здоровья
-</t>
-  </si>
-  <si>
     <t>Развитие транспортной системы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Создание условий для реализации конституционного права на свободу перемещения людей и товаров по территории на основе модернизации и поэтапного развития сети автомобильных дорог общего пользования, отвечающей интересам граждан, грузовладельцев и общества в целом
-2. Формирование грузо- и пассажиропроводящей системы, обеспечивающей гармоничное развитие и эффективное функционирование всех видов транспорта
-3. Содействие освоению и развитию территорий, интенсификации производства, решению социальных проблем населения
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Обеспечение устойчивого снижения уровня негативного воздействия автомобильного транспорта на окружающую среду и здоровье населения, а также достижение наибольшей экономической эффективности перевозок автотранспортными средствами, работающими на газомоторном топливе
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Развитие сети организаций, осуществляющих образовательную деятельность по образовательным программам в области культуры и искусства, для удовлетворения потребности населения Воронежской области в соответствующих образовательных услугах, удовлетворение потребностей сферы культуры и искусства Воронежской области в специалистах соответствующих квалификаций
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Формирование единого культурного и информационного пространства, создание условий для поддержки перспективных направлений развития культуры и обеспечения равных возможностей доступа к культурным ценностям и информационным ресурсам населения Воронежской области
-</t>
   </si>
   <si>
     <t>1. Формирование многообразной и полноценной культурной жизни населения Воронежской области, а также развитие туризма для приобщения граждан к культурному и природному наследию
@@ -580,9 +501,6 @@
 2. Создание условий для роста благосостояния граждан - получателей мер социальной поддержки</t>
   </si>
   <si>
-    <t>Создание условий для роста благосостояния граждан - получателей мер социальной поддержки.</t>
-  </si>
-  <si>
     <t>Создание условий для роста благосостояния граждан - получателей мер социальной поддержки</t>
   </si>
   <si>
@@ -592,49 +510,12 @@
     <t>Охрана окружающей среды и природные ресурсы</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Обеспечение безопасности водохозяйственных систем и гидротехнических сооружений, защищенности населения и объектов экономики от негативного воздействия вод 
-2. Обеспечение защищенности населения и объектов экономики от негативного воздействия вод 
-3. Минимизация воздействия отходов на окружающую среду за счет совершенствования региональной системы управления отходами, в том числе твердыми коммунальными отходами </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Обеспечение социально-экономических потребностей в водных ресурсах, охрана и восстановление водных объектов 
-2. Устойчивое водопользование при сохранении водных экосистем, снижение антропогенной назрузки на водные объекты и улучшение экологического состояния водных объектов 
-3. Сохранение и восстановление водных объектов на основе снижения антропогенной нагрузки на них, а также за счет экологической реабилитации водных объектов </t>
-  </si>
-  <si>
     <t xml:space="preserve">Повышение уровня экологической безопасности граждан, сохранение природных систем и рациональное использование природных ресурсов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Повышение уровня экологической безопасности граждан, сохранение природных систем и рациональное использование природных ресурсов 
-2. Обеспечение социально-экономических потребностей в водных ресурсах, охрана и восстановление водных объектов
-3. Сохранение существующих уникальных природных комплексов, создание новых особо охраняемых территорий 
-4. Сохранение и восстановление водных объектов на основе снижения антропогенной нагрузки на них, а также за счет экологической реабилитации водных объектов </t>
   </si>
   <si>
     <t xml:space="preserve">1. Повышение уровня экологической безопасности граждан, сохранение природных систем и рациональное использование природных ресурсов 
 2. Обеспечение рационального использования минерально-сырьевых ресурсов 
 3. Создание условий для рационального использования и сохранения охотничьих ресурсов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Предотвращение вредного воздействия отходов производства и потребления на здоровье человека и окружающую среду 
-2. Минимизация воздействия отходов на окружающую среду за счет совершенствования региональной системы управления отходами, в том числе твердыми коммунальными отходами
-3. Поэтапное сокращение объемов захоронения отходов, не прошедших сортировку, механическую и химическую обработку, а также отходов, которые могут быть использованы в качестве вторичного сырья 
-4. Ликвидация объектов негативного воздействия на окружающую среду, в том числе объектов накопленного экологического вреда и несанкционированных свалок </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Поэтапное сокращение объемов захоронения отходов, не прошедших сортировку, механическую и химическую обработку, а также отходов, которые могут быть использованы в качестве вторичного сырья 
-2. Ликвидация объектов негативного воздействия на окружающую среду, в том числе объектов накопленного экологического вреда и несанкционированных свалок </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Сохранение и восстановление биологического разнообразия Воронежской области в естественной среде обитания 
-2. Сохранение существующих уникальных природных комплексов, создание новых особо охраняемых территорий </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Создание условий для сохранения видового разнообразия и естественных мест обитания видов 
-2. Сохранение и восстановление биологического разнообразия Воронежской области в естественной среде обитания 
-3. Сохранение существующих уникальных природных комплексов, создание новых особо охраняемых территорий 
-4. Создание условий для сохранения объектов животного и растительного мира, водных биологических ресурсов 
-5. Развитие системы экологического просвещения населения и формирования экологической культуры населения </t>
   </si>
   <si>
     <t>1. Реализация государственной политики в области охраны окружающей среды и природопользования, направленной на улучшение экологической обстановки в Воронежской области 
@@ -659,10 +540,6 @@
     <t>Доступная среда</t>
   </si>
   <si>
-    <t xml:space="preserve">Формирование доступной среды для инвалидов и иных маломобильных групп населения
-</t>
-  </si>
-  <si>
     <t>Обеспечение роста уровня и качества жизни населения за счет реализации потенциала энергосбережения и повышения энергетической эффективности на основе модернизации, технологического развития и перехода  к рациональному и экологмчески ответственному использованию энергетических ресурсов</t>
   </si>
   <si>
@@ -692,6 +569,110 @@
   <si>
     <t>соответствующая цель госпрограммы, подпрограммы 
 (при наличии)</t>
+  </si>
+  <si>
+    <t>1. Создание условий для реализации конституционного права на свободу перемещения людей и товаров по территории на основе модернизации и поэтапного развития сети автомобильных дорог общего пользования, отвечающей интересам граждан, грузовладельцев и общества в целом
+2. Формирование грузо- и пассажиропроводящей системы, обеспечивающей гармоничное развитие и эффективное функционирование всех видов транспорта
+3. Содействие освоению и развитию территорий, интенсификации производства, решению социальных проблем населения</t>
+  </si>
+  <si>
+    <t>Формирование единого культурного и информационного пространства, создание условий для поддержки перспективных направлений развития культуры и обеспечения равных возможностей доступа к культурным ценностям и информационным ресурсам населения Воронежской области</t>
+  </si>
+  <si>
+    <t>Формирование доступной среды для инвалидов и иных маломобильных групп населения</t>
+  </si>
+  <si>
+    <t>Создание благоприятного предпринимательского климата и условий для ведения бизнеса</t>
+  </si>
+  <si>
+    <t>Создание условий для оказания доступной и качественной медицинской помощи детям и матерям</t>
+  </si>
+  <si>
+    <t>Создание в системе дошкольного и общего образования равных возможностей для современного качественного образования</t>
+  </si>
+  <si>
+    <t>1. Создание в системе дошкольного и общего образования равных возможностей для современного качественного образования
+2. Создание специальных условий для организации обучения и воспитания детей с ограниченными возможностями здоровья</t>
+  </si>
+  <si>
+    <t>Развитие сети организаций, осуществляющих образовательную деятельность по образовательным программам в области культуры и искусства, для удовлетворения потребности населения Воронежской области в соответствующих образовательных услугах, удовлетворение потребностей сферы культуры и искусства Воронежской области в специалистах соответствующих квалификаций</t>
+  </si>
+  <si>
+    <t>1. Обеспечение безопасности водохозяйственных систем и гидротехнических сооружений, защищенности населения и объектов экономики от негативного воздействия вод 
+2. Обеспечение защищенности населения и объектов экономики от негативного воздействия вод 
+3. Минимизация воздействия отходов на окружающую среду за счет совершенствования региональной системы управления отходами, в том числе твердыми коммунальными отходами</t>
+  </si>
+  <si>
+    <t>1. Обеспечение социально-экономических потребностей в водных ресурсах, охрана и восстановление водных объектов 
+2. Устойчивое водопользование при сохранении водных экосистем, снижение антропогенной назрузки на водные объекты и улучшение экологического состояния водных объектов 
+3. Сохранение и восстановление водных объектов на основе снижения антропогенной нагрузки на них, а также за счет экологической реабилитации водных объектов</t>
+  </si>
+  <si>
+    <t>Повышение качества жизни граждан на территории Воронежской области за счет использования информационных и телекоммуникационных технологий</t>
+  </si>
+  <si>
+    <t>Повышение качества жилищного обеспечения населения Воронежской области путем повышения доступности жилья и обеспечения устойчивого развития территорий региона</t>
+  </si>
+  <si>
+    <t>Обеспечение устойчивого снижения уровня негативного воздействия автомобильного транспорта на окружающую среду и здоровье населения, а также достижение наибольшей экономической эффективности перевозок автотранспортными средствами, работающими на газомоторном топливе</t>
+  </si>
+  <si>
+    <t>1. Повышение уровня экологической безопасности граждан, сохранение природных систем и рациональное использование природных ресурсов 
+2. Обеспечение социально-экономических потребностей в водных ресурсах, охрана и восстановление водных объектов
+3. Сохранение существующих уникальных природных комплексов, создание новых особо охраняемых территорий 
+4. Сохранение и восстановление водных объектов на основе снижения антропогенной нагрузки на них, а также за счет экологической реабилитации водных объектов</t>
+  </si>
+  <si>
+    <t>1. Предотвращение вредного воздействия отходов производства и потребления на здоровье человека и окружающую среду 
+2. Минимизация воздействия отходов на окружающую среду за счет совершенствования региональной системы управления отходами, в том числе твердыми коммунальными отходами
+3. Поэтапное сокращение объемов захоронения отходов, не прошедших сортировку, механическую и химическую обработку, а также отходов, которые могут быть использованы в качестве вторичного сырья 
+4. Ликвидация объектов негативного воздействия на окружающую среду, в том числе объектов накопленного экологического вреда и несанкционированных свалок</t>
+  </si>
+  <si>
+    <t>1. Поэтапное сокращение объемов захоронения отходов, не прошедших сортировку, механическую и химическую обработку, а также отходов, которые могут быть использованы в качестве вторичного сырья 
+2. Ликвидация объектов негативного воздействия на окружающую среду, в том числе объектов накопленного экологического вреда и несанкционированных свалок</t>
+  </si>
+  <si>
+    <t>Создание условий для повышения эффективности охраны, защиты, воспроизводства, а также рационального многоцелевого и неистощительного использования лесов при сохранении их экологических функций, биологического разнообразия, баланса их выбытия и воспроизводства</t>
+  </si>
+  <si>
+    <t>1. Сохранение и восстановление биологического разнообразия Воронежской области в естественной среде обитания 
+2. Сохранение существующих уникальных природных комплексов, создание новых особо охраняемых территорий</t>
+  </si>
+  <si>
+    <t>1. Создание условий для сохранения видового разнообразия и естественных мест обитания видов 
+2. Сохранение и восстановление биологического разнообразия Воронежской области в естественной среде обитания 
+3. Сохранение существующих уникальных природных комплексов, создание новых особо охраняемых территорий 
+4. Создание условий для сохранения объектов животного и растительного мира, водных биологических ресурсов 
+5. Развитие системы экологического просвещения населения и формирования экологической культуры населения</t>
+  </si>
+  <si>
+    <t>Обеспечение доступности информации о бюджетном процессе в Воронежской области</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Совершенствование оказания скорой, в том числе скорой специализированной, медицинской помощи, медицинской эвакуации и качества донорской крови и ее компонентов
+</t>
+  </si>
+  <si>
+    <t>Совершенствование оказания специализированной медицинской помощи лицам, инфицированным вирусом иммунодефицита человека, гепатитами B и C</t>
+  </si>
+  <si>
+    <t>Снижение материнской, младенческой и детской смертности</t>
+  </si>
+  <si>
+    <t>15.1 К 2020 году обеспечить сохранение, восстановление и рациональное использование наземных и внутренних пресноводных экосистем и их услуг, в том числе лесов, водноболотных угодий, гор и засушливых земель, в соответствии с обязательствами, вытекающими из международных соглашений</t>
+  </si>
+  <si>
+    <t>4.2 К 2030 году обеспечить всем девочкам и мальчикам доступ к качественным системам развития, ухода и дошкольного обучения детей младшего возраста, с тем чтобы они были готовы к получению начального образования</t>
+  </si>
+  <si>
+    <t>1. Создание условий, способствующих эффективному использованию трудовых ресурсов, развитию сферы занятости населения в Воронежской области
+2. Обеспечение защиты конституционных прав работников на здоровые и безопасные условия труда на основе согласованных действий социальных партнеров по реализации государственной политики в сфере охраны труда
+3. Сокращение дефицита населения трудоспособного возраста в Воронежской области</t>
+  </si>
+  <si>
+    <t>1. Повышение эффективности функционирования региональной туристской индустрии и повышение вклада туризма в экономику Воронежской области, создание комфортной туристской среды
+2. Комплексное развитие региональной туристской индустрии</t>
   </si>
 </sst>
 </file>
@@ -2911,8 +2892,8 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D63" zoomScale="80" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A54" zoomScale="80" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2929,13 +2910,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2951,13 +2932,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F3" s="23"/>
     </row>
@@ -2967,10 +2948,10 @@
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
       <c r="E4" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -3001,16 +2982,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
@@ -3021,16 +3002,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -3055,10 +3036,10 @@
         <v>6</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="171.6" x14ac:dyDescent="0.3">
@@ -3075,10 +3056,10 @@
         <v>7</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -3103,10 +3084,10 @@
         <v>9</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
@@ -3123,10 +3104,10 @@
         <v>10</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="78" x14ac:dyDescent="0.3">
@@ -3143,10 +3124,10 @@
         <v>11</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
@@ -3163,10 +3144,10 @@
         <v>12</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
@@ -3183,10 +3164,10 @@
         <v>13</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
@@ -3203,10 +3184,10 @@
         <v>14</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="78" x14ac:dyDescent="0.3">
@@ -3223,10 +3204,10 @@
         <v>15</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
@@ -3243,10 +3224,10 @@
         <v>16</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
@@ -3263,10 +3244,10 @@
         <v>17</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
@@ -3283,10 +3264,10 @@
         <v>18</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -3311,10 +3292,10 @@
         <v>20</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="78" x14ac:dyDescent="0.3">
@@ -3328,13 +3309,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="78" x14ac:dyDescent="0.3">
@@ -3348,13 +3329,13 @@
         <v>19</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
@@ -3368,13 +3349,13 @@
         <v>19</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
@@ -3388,13 +3369,13 @@
         <v>19</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="78" x14ac:dyDescent="0.3">
@@ -3408,16 +3389,16 @@
         <v>19</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <v>21</v>
       </c>
@@ -3428,13 +3409,13 @@
         <v>19</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3448,13 +3429,13 @@
         <v>19</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="132.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3468,13 +3449,13 @@
         <v>19</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -3493,16 +3474,16 @@
         <v>5</v>
       </c>
       <c r="C33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="E33" s="6" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -3521,16 +3502,16 @@
         <v>6</v>
       </c>
       <c r="C35" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="E35" s="6" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="183.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3541,16 +3522,16 @@
         <v>6</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -3569,16 +3550,16 @@
         <v>7</v>
       </c>
       <c r="C38" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="E38" s="8" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -3597,16 +3578,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="E40" s="6" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="78" x14ac:dyDescent="0.3">
@@ -3617,16 +3598,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="E41" s="6" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="78" x14ac:dyDescent="0.3">
@@ -3637,16 +3618,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="124.8" x14ac:dyDescent="0.3">
@@ -3657,16 +3638,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="140.4" x14ac:dyDescent="0.3">
@@ -3677,16 +3658,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="168.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3697,16 +3678,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="168.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3717,19 +3698,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="124.8" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
         <v>35</v>
       </c>
@@ -3737,16 +3718,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="78" x14ac:dyDescent="0.3">
@@ -3757,16 +3738,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -3785,16 +3766,16 @@
         <v>9</v>
       </c>
       <c r="C50" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="E50" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
@@ -3805,16 +3786,16 @@
         <v>9</v>
       </c>
       <c r="C51" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="E51" s="8" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
@@ -3825,16 +3806,16 @@
         <v>9</v>
       </c>
       <c r="C52" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="E52" s="6" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="211.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3845,16 +3826,16 @@
         <v>9</v>
       </c>
       <c r="C53" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="E53" s="6" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
@@ -3865,16 +3846,16 @@
         <v>9</v>
       </c>
       <c r="C54" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="E54" s="6" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="78" x14ac:dyDescent="0.3">
@@ -3885,16 +3866,16 @@
         <v>9</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3905,16 +3886,16 @@
         <v>9</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="124.8" x14ac:dyDescent="0.3">
@@ -3925,16 +3906,16 @@
         <v>9</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
@@ -3945,16 +3926,16 @@
         <v>9</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -3973,16 +3954,16 @@
         <v>10</v>
       </c>
       <c r="C60" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="E60" s="6" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3993,16 +3974,16 @@
         <v>10</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -4021,16 +4002,16 @@
         <v>11</v>
       </c>
       <c r="C63" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="E63" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
@@ -4041,16 +4022,16 @@
         <v>11</v>
       </c>
       <c r="C64" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="E64" s="6" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
@@ -4061,16 +4042,16 @@
         <v>11</v>
       </c>
       <c r="C65" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="E65" s="6" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
@@ -4081,16 +4062,16 @@
         <v>11</v>
       </c>
       <c r="C66" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="E66" s="8" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
@@ -4101,16 +4082,16 @@
         <v>11</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
@@ -4121,16 +4102,16 @@
         <v>11</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="78" x14ac:dyDescent="0.3">
@@ -4141,16 +4122,16 @@
         <v>11</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="78" x14ac:dyDescent="0.3">
@@ -4161,16 +4142,16 @@
         <v>11</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4181,16 +4162,16 @@
         <v>11</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="156" x14ac:dyDescent="0.3">
@@ -4201,16 +4182,16 @@
         <v>11</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4221,16 +4202,16 @@
         <v>11</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -4249,16 +4230,16 @@
         <v>12</v>
       </c>
       <c r="C75" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D75" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="E75" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4269,16 +4250,16 @@
         <v>12</v>
       </c>
       <c r="C76" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="E76" s="6" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4289,16 +4270,16 @@
         <v>12</v>
       </c>
       <c r="C77" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="E77" s="8" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
@@ -4309,16 +4290,16 @@
         <v>12</v>
       </c>
       <c r="C78" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="E78" s="6" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="175.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4329,16 +4310,16 @@
         <v>12</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4349,16 +4330,16 @@
         <v>12</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -4377,16 +4358,16 @@
         <v>15</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4397,16 +4378,16 @@
         <v>15</v>
       </c>
       <c r="C83" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D83" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D83" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="E83" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4417,16 +4398,16 @@
         <v>15</v>
       </c>
       <c r="C84" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D84" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D84" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="E84" s="6" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="252" customHeight="1" x14ac:dyDescent="0.3">
@@ -4437,16 +4418,16 @@
         <v>15</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="252" customHeight="1" x14ac:dyDescent="0.3">
@@ -4457,16 +4438,16 @@
         <v>15</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="159" customHeight="1" x14ac:dyDescent="0.3">
@@ -4477,16 +4458,16 @@
         <v>15</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -4505,16 +4486,16 @@
         <v>16</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
